--- a/SWP/Week1/Docs/References/OnlineLearn_Function Details.xlsx
+++ b/SWP/Week1/Docs/References/OnlineLearn_Function Details.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\swp391\SWP391-Group4-OnlineLearningSystem\SWP\Week1\Docs\References\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="110">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -86,6 +81,9 @@
     <t>Sơn</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>User Register</t>
   </si>
   <si>
@@ -103,6 +101,9 @@
 - Note that the link is only available for a specific time duration as configured in the system config file. </t>
   </si>
   <si>
+    <t xml:space="preserve">cần thêm màn hình nhập mật khẩu mới </t>
+  </si>
+  <si>
     <t>User Authorization</t>
   </si>
   <si>
@@ -112,6 +113,9 @@
     <t>Implementation of authorization mechanism in the system, including the specify the role of logged-in user, his/her authorized page links (building the displayed menu items (in the front end) and preventing unauthorized access via enter the links directly)</t>
   </si>
   <si>
+    <t>yêu cầu không có screen</t>
+  </si>
+  <si>
     <t>User Profile</t>
   </si>
   <si>
@@ -122,6 +126,9 @@
   </si>
   <si>
     <t>This is a pop-up screen which allows the user to change his/her password by inputting his current password as well as new password (twice)</t>
+  </si>
+  <si>
+    <t>Reusable</t>
   </si>
   <si>
     <t>Home</t>
@@ -395,24 +402,18 @@
   <si>
     <t>Show detailed user information (type, value, order, description, status), from that allow the user to add new, view or edit setting information</t>
   </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cần thêm màn hình nhập mật khẩu mới </t>
-  </si>
-  <si>
-    <t>yêu cầu không có screen</t>
-  </si>
-  <si>
-    <t>Reusable</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,14 +496,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,13 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,8 +665,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -551,88 +875,373 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -654,7 +1263,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -668,8 +1277,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2033270" y="0"/>
-          <a:ext cx="2570480" cy="731520"/>
+          <a:off x="2035810" y="0"/>
+          <a:ext cx="2567940" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -956,68 +1565,68 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62.69921875" style="2" customWidth="1"/>
-    <col min="7" max="228" width="8.796875" style="1" customWidth="1"/>
-    <col min="229" max="16384" width="10.796875" style="1"/>
+    <col min="2" max="2" width="15.7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.7" style="2" customWidth="1"/>
+    <col min="7" max="228" width="8.8" style="1" customWidth="1"/>
+    <col min="229" max="16384" width="10.8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" hidden="1">
+    <row r="1" hidden="1" spans="2:5">
       <c r="B1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" hidden="1" spans="2:5">
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" hidden="1" spans="2:5">
       <c r="B3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" hidden="1" spans="2:5">
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" hidden="1">
+    <row r="5" ht="19.2" hidden="1" spans="5:5">
       <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" hidden="1">
+    <row r="6" ht="15.6" hidden="1" spans="5:5">
       <c r="E6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" hidden="1">
+    <row r="7" ht="17.4" hidden="1" spans="4:4">
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="18" hidden="1">
+    <row r="8" ht="18" hidden="1" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1639,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" hidden="1" spans="1:6">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1050,15 +1659,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="39.6">
+    <row r="10" ht="39.6" spans="1:8">
       <c r="A10" s="11">
         <f>ROW()-9</f>
         <v>1</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="12">
@@ -1068,25 +1677,25 @@
       <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="52.8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="52.8" spans="1:8">
       <c r="A11" s="11">
         <f t="shared" ref="A11:A49" si="1">ROW()-9</f>
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="12">
@@ -1096,25 +1705,25 @@
       <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>16</v>
+      <c r="F11" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="79.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="79.2" spans="1:8">
       <c r="A12" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="12">
@@ -1122,27 +1731,27 @@
         <v>120</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="17" t="s">
         <v>19</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="52.8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="52.8" spans="1:8">
       <c r="A13" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="15">
@@ -1150,27 +1759,27 @@
         <v>240</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="39.6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="39.6" spans="1:8">
       <c r="A14" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="12">
@@ -1180,25 +1789,25 @@
       <c r="E14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>24</v>
+      <c r="F14" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="26.4" spans="1:8">
       <c r="A15" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="12">
@@ -1208,54 +1817,54 @@
       <c r="E15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>26</v>
+      <c r="F15" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="105.6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="105.6" spans="1:8">
       <c r="A16" s="11">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="52.8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="52.8" spans="1:8">
       <c r="A17" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
@@ -1265,25 +1874,25 @@
         <v>12</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="39.6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="26.4" spans="1:8">
       <c r="A18" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
@@ -1293,106 +1902,106 @@
         <v>12</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="92.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="92.4" spans="1:8">
       <c r="A19" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="52.8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="52.8" spans="1:8">
       <c r="A20" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="52.8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="52.8" spans="1:7">
       <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="79.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" ht="79.2" spans="1:7">
       <c r="A22" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>42</v>
+      <c r="B22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="12">
         <f t="shared" si="0"/>
@@ -1401,23 +2010,23 @@
       <c r="E22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>43</v>
+      <c r="F22" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="11">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>42</v>
+      <c r="B23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
@@ -1426,173 +2035,173 @@
       <c r="E23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>45</v>
+      <c r="F23" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" ht="52.8" spans="1:7">
+      <c r="A28" s="11">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" ht="39.6" spans="1:7">
+      <c r="A29" s="11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" ht="39.6" spans="1:7">
+      <c r="A30" s="11">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="11">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="12">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="11">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="11">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="52.8">
-      <c r="A28" s="11">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="12">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="39.6">
-      <c r="A29" s="11">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="17" t="s">
+      <c r="B30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="39.6">
-      <c r="A30" s="11">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="D30" s="12">
         <f t="shared" si="0"/>
@@ -1601,23 +2210,23 @@
       <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="11">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>56</v>
+      <c r="B31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="D31" s="12">
         <f t="shared" si="0"/>
@@ -1626,98 +2235,98 @@
       <c r="E31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>64</v>
+      <c r="F31" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="92.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" ht="92.4" spans="1:7">
       <c r="A32" s="11">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>66</v>
+      <c r="B32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D32" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="39.6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" ht="39.6" spans="1:7">
       <c r="A33" s="11">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>66</v>
+      <c r="B33" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D33" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="52.8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" ht="52.8" spans="1:7">
       <c r="A34" s="11">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="D34" s="12">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="26.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" ht="26.4" spans="1:7">
       <c r="A35" s="11">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>66</v>
+      <c r="B35" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D35" s="12">
         <f t="shared" si="0"/>
@@ -1726,23 +2335,23 @@
       <c r="E35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>73</v>
+      <c r="F35" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="39.6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" ht="39.6" spans="1:7">
       <c r="A36" s="11">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>66</v>
+      <c r="B36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D36" s="12">
         <f t="shared" si="0"/>
@@ -1751,36 +2360,36 @@
       <c r="E36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>75</v>
+      <c r="F36" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="39.6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" ht="39.6" spans="1:7">
       <c r="A37" s="11">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>66</v>
+      <c r="B37" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D37" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>78</v>
+        <v>19</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1788,124 +2397,124 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>66</v>
+      <c r="B38" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="D38" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" ht="92.4" spans="1:7">
+      <c r="A39" s="11">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" ht="52.8" spans="1:7">
+      <c r="A40" s="11">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="12">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="92.4">
-      <c r="A39" s="11">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="12">
+    </row>
+    <row r="41" ht="39.6" spans="1:7">
+      <c r="A41" s="11">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="52.8">
-      <c r="A40" s="11">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="12">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="39.6">
-      <c r="A41" s="11">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B41" s="16" t="s">
+      <c r="E41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" ht="92.4" spans="1:7">
+      <c r="A42" s="11">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="12">
+      <c r="D42" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="92.4">
-      <c r="A42" s="11">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="12">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1913,86 +2522,86 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>82</v>
+      <c r="B43" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="D43" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="118.8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" ht="118.8" spans="1:7">
       <c r="A44" s="11">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>93</v>
+      <c r="B44" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="D44" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>94</v>
+        <v>19</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="105.6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" ht="105.6" spans="1:7">
       <c r="A45" s="11">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>93</v>
+      <c r="B45" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="D45" s="12">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>96</v>
+        <v>19</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="92.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" ht="92.4" spans="1:7">
       <c r="A46" s="11">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>98</v>
+      <c r="B46" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="D46" s="12">
         <f t="shared" si="0"/>
@@ -2001,23 +2610,23 @@
       <c r="E46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>99</v>
+      <c r="F46" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="52.8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" ht="52.8" spans="1:7">
       <c r="A47" s="11">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>98</v>
+      <c r="B47" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="D47" s="12">
         <f t="shared" si="0"/>
@@ -2026,23 +2635,23 @@
       <c r="E47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>101</v>
+      <c r="F47" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="79.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" ht="79.2" spans="1:7">
       <c r="A48" s="11">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>98</v>
       </c>
       <c r="D48" s="12">
         <f t="shared" si="0"/>
@@ -2051,23 +2660,23 @@
       <c r="E48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>103</v>
+      <c r="F48" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="26.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" ht="26.4" spans="1:7">
       <c r="A49" s="11">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>98</v>
+      <c r="B49" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="D49" s="12">
         <f t="shared" si="0"/>
@@ -2076,11 +2685,11 @@
       <c r="E49" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="17" t="s">
-        <v>105</v>
+      <c r="F49" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +2699,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>